--- a/OnlineShop/Documentation/210_Gantt-Diagramm_Joshua_simon.110.xlsx
+++ b/OnlineShop/Documentation/210_Gantt-Diagramm_Joshua_simon.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22410" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,13 @@
   <definedNames>
     <definedName name="a1ä">Balkenplan!$Q$19</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>Nr.</t>
   </si>
@@ -91,9 +92,6 @@
   </si>
   <si>
     <t>1h /</t>
-  </si>
-  <si>
-    <t>a1</t>
   </si>
   <si>
     <t>[Joshua] SOLL</t>
@@ -366,7 +364,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -423,66 +421,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -509,6 +447,68 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -824,7 +824,7 @@
   <dimension ref="A1:CG40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +869,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -880,109 +880,109 @@
       <c r="E1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="57">
+      <c r="F1" s="64">
         <v>43136</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="57">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="64">
         <v>43137</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="57">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="64">
         <v>43138</v>
       </c>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="57">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="64">
         <v>43150</v>
       </c>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="57">
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="64">
         <v>43151</v>
       </c>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="57">
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="64">
         <v>43152</v>
       </c>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="57">
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="64">
         <v>43153</v>
       </c>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="59"/>
-      <c r="BJ1" s="57">
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="64">
         <v>43154</v>
       </c>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="57" t="s">
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="65"/>
+      <c r="BQ1" s="66"/>
+      <c r="BR1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="58"/>
-      <c r="BT1" s="58"/>
-      <c r="BU1" s="58"/>
-      <c r="BV1" s="58"/>
-      <c r="BW1" s="58"/>
-      <c r="BX1" s="58"/>
-      <c r="BY1" s="59"/>
-      <c r="BZ1" s="57" t="s">
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="65"/>
+      <c r="BX1" s="65"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="CA1" s="58"/>
-      <c r="CB1" s="58"/>
-      <c r="CC1" s="58"/>
-      <c r="CD1" s="58"/>
-      <c r="CE1" s="58"/>
-      <c r="CF1" s="58"/>
-      <c r="CG1" s="59"/>
+      <c r="CA1" s="65"/>
+      <c r="CB1" s="65"/>
+      <c r="CC1" s="65"/>
+      <c r="CD1" s="65"/>
+      <c r="CE1" s="65"/>
+      <c r="CF1" s="65"/>
+      <c r="CG1" s="66"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1235,21 +1235,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="63">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
       <c r="U3" s="11"/>
@@ -1271,12 +1271,12 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="70" t="s">
-        <v>26</v>
+      <c r="A4" s="63"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="50" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -1292,16 +1292,16 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="J5" s="46"/>
       <c r="M5" s="13"/>
       <c r="U5" s="13"/>
       <c r="AC5" s="13"/>
@@ -1314,15 +1314,15 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="70" t="s">
-        <v>29</v>
+      <c r="A6" s="63"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="67"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -1403,28 +1403,28 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+      <c r="A7" s="63">
         <v>2</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="72" t="s">
-        <v>25</v>
+      <c r="D7" s="59"/>
+      <c r="E7" s="52" t="s">
+        <v>24</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="60"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="40"/>
       <c r="U7" s="17"/>
       <c r="V7" s="15"/>
       <c r="AC7" s="17"/>
@@ -1444,17 +1444,28 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="73" t="s">
-        <v>26</v>
+      <c r="A8" s="63"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="53" t="s">
+        <v>25</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="18"/>
-      <c r="U8" s="20"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="18"/>
       <c r="AC8" s="20"/>
       <c r="AD8" s="18"/>
@@ -1473,12 +1484,12 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="68" t="s">
-        <v>28</v>
+      <c r="A9" s="63"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="48" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="18"/>
       <c r="H9" s="37"/>
@@ -1486,7 +1497,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
-      <c r="M9" s="62"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="37"/>
       <c r="O9" s="37"/>
       <c r="U9" s="20"/>
@@ -1508,29 +1519,29 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="73" t="s">
-        <v>29</v>
+      <c r="A10" s="63"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="53" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="20"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="18"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
@@ -1597,25 +1608,25 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="63">
         <v>3</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="69" t="s">
-        <v>25</v>
+      <c r="D11" s="69"/>
+      <c r="E11" s="49" t="s">
+        <v>24</v>
       </c>
       <c r="F11" s="9"/>
       <c r="M11" s="11"/>
       <c r="N11" s="9"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
       <c r="U11" s="11"/>
       <c r="V11" s="9"/>
       <c r="AC11" s="11"/>
@@ -1635,12 +1646,12 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="70" t="s">
-        <v>26</v>
+      <c r="A12" s="63"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="50" t="s">
+        <v>25</v>
       </c>
       <c r="M12" s="13"/>
       <c r="U12" s="13"/>
@@ -1654,12 +1665,12 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="71" t="s">
-        <v>28</v>
+      <c r="A13" s="63"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="51" t="s">
+        <v>27</v>
       </c>
       <c r="M13" s="13"/>
       <c r="P13" s="37"/>
@@ -1676,12 +1687,12 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="70" t="s">
-        <v>29</v>
+      <c r="A14" s="63"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1765,30 +1776,30 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+      <c r="A15" s="63">
         <v>4</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="72" t="s">
-        <v>25</v>
+      <c r="D15" s="59"/>
+      <c r="E15" s="52" t="s">
+        <v>24</v>
       </c>
       <c r="F15" s="15"/>
       <c r="M15" s="17"/>
       <c r="N15" s="15"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
       <c r="AC15" s="17"/>
       <c r="AD15" s="15"/>
       <c r="AK15" s="17"/>
@@ -1806,12 +1817,12 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="73" t="s">
-        <v>26</v>
+      <c r="A16" s="63"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="53" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="18"/>
       <c r="M16" s="20"/>
@@ -1835,20 +1846,20 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="68" t="s">
-        <v>28</v>
+      <c r="A17" s="63"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="48" t="s">
+        <v>27</v>
       </c>
       <c r="F17" s="18"/>
       <c r="M17" s="20"/>
       <c r="N17" s="18"/>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="64"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="44"/>
       <c r="W17" s="37"/>
       <c r="X17" s="37"/>
       <c r="Y17" s="37"/>
@@ -1870,12 +1881,12 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="73" t="s">
-        <v>29</v>
+      <c r="A18" s="63"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="53" t="s">
+        <v>28</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
@@ -1959,39 +1970,36 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
+      <c r="A19" s="63">
         <v>5</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="69" t="s">
-        <v>25</v>
+      <c r="D19" s="69"/>
+      <c r="E19" s="49" t="s">
+        <v>24</v>
       </c>
       <c r="F19" s="9"/>
       <c r="M19" s="11"/>
       <c r="N19" s="9"/>
-      <c r="Q19" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="U19" s="11"/>
       <c r="V19" s="9"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="63"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="43"/>
       <c r="AS19" s="11"/>
       <c r="AT19" s="9"/>
       <c r="BA19" s="11"/>
@@ -2005,12 +2013,12 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="70" t="s">
-        <v>26</v>
+      <c r="A20" s="63"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="50" t="s">
+        <v>25</v>
       </c>
       <c r="M20" s="13"/>
       <c r="U20" s="13"/>
@@ -2024,18 +2032,18 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="71" t="s">
-        <v>28</v>
+      <c r="A21" s="63"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="51" t="s">
+        <v>27</v>
       </c>
       <c r="M21" s="13"/>
       <c r="U21" s="13"/>
       <c r="AA21" s="37"/>
       <c r="AB21" s="37"/>
-      <c r="AC21" s="62"/>
+      <c r="AC21" s="42"/>
       <c r="AD21" s="37"/>
       <c r="AE21" s="37"/>
       <c r="AF21" s="37"/>
@@ -2043,7 +2051,7 @@
       <c r="AH21" s="37"/>
       <c r="AI21" s="37"/>
       <c r="AJ21" s="37"/>
-      <c r="AK21" s="62"/>
+      <c r="AK21" s="42"/>
       <c r="AL21" s="37"/>
       <c r="AS21" s="13"/>
       <c r="BA21" s="13"/>
@@ -2053,12 +2061,12 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="70" t="s">
-        <v>29</v>
+      <c r="A22" s="63"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -2142,18 +2150,18 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
+      <c r="A23" s="63">
         <v>6</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="72" t="s">
-        <v>25</v>
+      <c r="D23" s="59"/>
+      <c r="E23" s="52" t="s">
+        <v>24</v>
       </c>
       <c r="F23" s="15"/>
       <c r="M23" s="17"/>
@@ -2164,9 +2172,9 @@
       <c r="AD23" s="15"/>
       <c r="AK23" s="17"/>
       <c r="AL23" s="15"/>
-      <c r="AM23" s="60"/>
-      <c r="AN23" s="60"/>
-      <c r="AO23" s="60"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
       <c r="AS23" s="17"/>
       <c r="AT23" s="15"/>
       <c r="BA23" s="17"/>
@@ -2180,12 +2188,12 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="73" t="s">
-        <v>27</v>
+      <c r="A24" s="63"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="53" t="s">
+        <v>26</v>
       </c>
       <c r="F24" s="18"/>
       <c r="M24" s="20"/>
@@ -2209,12 +2217,12 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="68" t="s">
-        <v>28</v>
+      <c r="A25" s="63"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="48" t="s">
+        <v>27</v>
       </c>
       <c r="F25" s="18"/>
       <c r="M25" s="20"/>
@@ -2225,9 +2233,9 @@
       <c r="AD25" s="18"/>
       <c r="AK25" s="20"/>
       <c r="AL25" s="18"/>
-      <c r="AM25" s="65"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
+      <c r="AM25" s="45"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="45"/>
       <c r="AS25" s="20"/>
       <c r="AT25" s="18"/>
       <c r="BA25" s="20"/>
@@ -2241,12 +2249,12 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="73" t="s">
-        <v>29</v>
+      <c r="A26" s="63"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="53" t="s">
+        <v>28</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="19"/>
@@ -2330,18 +2338,18 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
+      <c r="A27" s="63">
         <v>7</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="69" t="s">
-        <v>25</v>
+      <c r="D27" s="69"/>
+      <c r="E27" s="49" t="s">
+        <v>24</v>
       </c>
       <c r="F27" s="9"/>
       <c r="M27" s="11"/>
@@ -2352,11 +2360,11 @@
       <c r="AD27" s="9"/>
       <c r="AK27" s="11"/>
       <c r="AL27" s="9"/>
-      <c r="AQ27" s="60"/>
-      <c r="AR27" s="60"/>
-      <c r="AS27" s="61"/>
-      <c r="AT27" s="63"/>
-      <c r="AU27" s="60"/>
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="43"/>
+      <c r="AU27" s="40"/>
       <c r="BA27" s="11"/>
       <c r="BB27" s="9"/>
       <c r="BI27" s="11"/>
@@ -2368,12 +2376,12 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="70" t="s">
-        <v>26</v>
+      <c r="A28" s="63"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="50" t="s">
+        <v>25</v>
       </c>
       <c r="M28" s="13"/>
       <c r="U28" s="13"/>
@@ -2387,12 +2395,12 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="71" t="s">
-        <v>28</v>
+      <c r="A29" s="63"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="51" t="s">
+        <v>27</v>
       </c>
       <c r="M29" s="13"/>
       <c r="U29" s="13"/>
@@ -2410,12 +2418,12 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="70" t="s">
-        <v>29</v>
+      <c r="A30" s="63"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
@@ -2499,18 +2507,18 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40">
+      <c r="A31" s="63">
         <v>8</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="72" t="s">
-        <v>25</v>
+      <c r="D31" s="59"/>
+      <c r="E31" s="52" t="s">
+        <v>24</v>
       </c>
       <c r="F31" s="15"/>
       <c r="M31" s="17"/>
@@ -2523,19 +2531,19 @@
       <c r="AL31" s="15"/>
       <c r="AS31" s="17"/>
       <c r="AT31" s="15"/>
-      <c r="AV31" s="60"/>
-      <c r="AW31" s="60"/>
-      <c r="AX31" s="60"/>
-      <c r="AY31" s="60"/>
-      <c r="AZ31" s="60"/>
-      <c r="BA31" s="61"/>
-      <c r="BB31" s="63"/>
-      <c r="BC31" s="60"/>
-      <c r="BD31" s="60"/>
-      <c r="BE31" s="60"/>
-      <c r="BF31" s="60"/>
-      <c r="BG31" s="60"/>
-      <c r="BH31" s="60"/>
+      <c r="AV31" s="40"/>
+      <c r="AW31" s="40"/>
+      <c r="AX31" s="40"/>
+      <c r="AY31" s="40"/>
+      <c r="AZ31" s="40"/>
+      <c r="BA31" s="41"/>
+      <c r="BB31" s="43"/>
+      <c r="BC31" s="40"/>
+      <c r="BD31" s="40"/>
+      <c r="BE31" s="40"/>
+      <c r="BF31" s="40"/>
+      <c r="BG31" s="40"/>
+      <c r="BH31" s="40"/>
       <c r="BI31" s="17"/>
       <c r="BJ31" s="15"/>
       <c r="BQ31" s="17"/>
@@ -2545,12 +2553,12 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="73" t="s">
-        <v>27</v>
+      <c r="A32" s="63"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="53" t="s">
+        <v>26</v>
       </c>
       <c r="F32" s="18"/>
       <c r="M32" s="20"/>
@@ -2574,12 +2582,12 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="68" t="s">
-        <v>28</v>
+      <c r="A33" s="63"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="48" t="s">
+        <v>27</v>
       </c>
       <c r="F33" s="18"/>
       <c r="M33" s="20"/>
@@ -2614,12 +2622,12 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="73" t="s">
-        <v>29</v>
+      <c r="A34" s="63"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="53" t="s">
+        <v>28</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
@@ -2703,18 +2711,18 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
+      <c r="A35" s="63">
         <v>9</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="69" t="s">
-        <v>25</v>
+      <c r="D35" s="69"/>
+      <c r="E35" s="49" t="s">
+        <v>24</v>
       </c>
       <c r="F35" s="9"/>
       <c r="M35" s="11"/>
@@ -2725,7 +2733,7 @@
       <c r="AD35" s="9"/>
       <c r="AK35" s="11"/>
       <c r="AL35" s="9"/>
-      <c r="AP35" s="60"/>
+      <c r="AP35" s="40"/>
       <c r="AS35" s="11"/>
       <c r="AT35" s="9"/>
       <c r="BA35" s="11"/>
@@ -2739,12 +2747,12 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="70" t="s">
-        <v>26</v>
+      <c r="A36" s="63"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="50" t="s">
+        <v>25</v>
       </c>
       <c r="M36" s="13"/>
       <c r="U36" s="13"/>
@@ -2758,12 +2766,12 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="71" t="s">
-        <v>28</v>
+      <c r="A37" s="63"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="51" t="s">
+        <v>27</v>
       </c>
       <c r="M37" s="13"/>
       <c r="U37" s="13"/>
@@ -2778,12 +2786,12 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="70" t="s">
-        <v>29</v>
+      <c r="A38" s="63"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -2867,12 +2875,12 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
@@ -2958,10 +2966,10 @@
       <c r="CG39" s="35"/>
     </row>
     <row r="40" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="31"/>
       <c r="F40" s="32"/>
       <c r="G40" s="33"/>
@@ -3046,6 +3054,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="BJ1:BQ1"/>
+    <mergeCell ref="BR1:BY1"/>
+    <mergeCell ref="BZ1:CG1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="AD1:AK1"/>
+    <mergeCell ref="AL1:AS1"/>
+    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="BB1:BI1"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:D40"/>
     <mergeCell ref="A39:A40"/>
@@ -3053,12 +3087,6 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:D14"/>
@@ -3068,26 +3096,6 @@
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:D22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="BJ1:BQ1"/>
-    <mergeCell ref="BR1:BY1"/>
-    <mergeCell ref="BZ1:CG1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="AD1:AK1"/>
-    <mergeCell ref="AL1:AS1"/>
-    <mergeCell ref="AT1:BA1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/OnlineShop/Documentation/210_Gantt-Diagramm_Joshua_simon.110.xlsx
+++ b/OnlineShop/Documentation/210_Gantt-Diagramm_Joshua_simon.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22410" windowHeight="10800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -447,6 +447,50 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -462,53 +506,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60 % - Akzent1" xfId="2" builtinId="32"/>
@@ -823,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +870,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24"/>
@@ -880,109 +881,109 @@
       <c r="E1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="64">
+      <c r="F1" s="56">
         <v>43136</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="64">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="56">
         <v>43137</v>
       </c>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="64">
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="56">
         <v>43138</v>
       </c>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="64">
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="56">
         <v>43150</v>
       </c>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="64">
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="56">
         <v>43151</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="64">
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="56">
         <v>43152</v>
       </c>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="64">
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="56">
         <v>43153</v>
       </c>
-      <c r="BC1" s="65"/>
-      <c r="BD1" s="65"/>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="65"/>
-      <c r="BH1" s="65"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="64">
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="56">
         <v>43154</v>
       </c>
-      <c r="BK1" s="65"/>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="65"/>
-      <c r="BP1" s="65"/>
-      <c r="BQ1" s="66"/>
-      <c r="BR1" s="64" t="s">
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="65"/>
-      <c r="BX1" s="65"/>
-      <c r="BY1" s="66"/>
-      <c r="BZ1" s="64" t="s">
+      <c r="BS1" s="57"/>
+      <c r="BT1" s="57"/>
+      <c r="BU1" s="57"/>
+      <c r="BV1" s="57"/>
+      <c r="BW1" s="57"/>
+      <c r="BX1" s="57"/>
+      <c r="BY1" s="58"/>
+      <c r="BZ1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="CA1" s="65"/>
-      <c r="CB1" s="65"/>
-      <c r="CC1" s="65"/>
-      <c r="CD1" s="65"/>
-      <c r="CE1" s="65"/>
-      <c r="CF1" s="65"/>
-      <c r="CG1" s="66"/>
+      <c r="CA1" s="57"/>
+      <c r="CB1" s="57"/>
+      <c r="CC1" s="57"/>
+      <c r="CD1" s="57"/>
+      <c r="CE1" s="57"/>
+      <c r="CF1" s="57"/>
+      <c r="CG1" s="58"/>
     </row>
     <row r="2" spans="1:85" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
@@ -1235,21 +1236,21 @@
       </c>
     </row>
     <row r="3" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63">
+      <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
       <c r="U3" s="11"/>
@@ -1271,10 +1272,10 @@
       <c r="CG3" s="11"/>
     </row>
     <row r="4" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="50" t="s">
         <v>25</v>
       </c>
@@ -1292,10 +1293,10 @@
       <c r="CG4" s="13"/>
     </row>
     <row r="5" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="51" t="s">
         <v>27</v>
       </c>
@@ -1314,10 +1315,10 @@
       <c r="CG5" s="13"/>
     </row>
     <row r="6" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="50" t="s">
         <v>28</v>
       </c>
@@ -1403,16 +1404,16 @@
       <c r="CG6" s="13"/>
     </row>
     <row r="7" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63">
+      <c r="A7" s="59">
         <v>2</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="52" t="s">
         <v>24</v>
       </c>
@@ -1444,10 +1445,10 @@
       <c r="CG7" s="17"/>
     </row>
     <row r="8" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="60"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="53" t="s">
         <v>25</v>
       </c>
@@ -1457,15 +1458,11 @@
       <c r="J8" s="47"/>
       <c r="K8" s="47"/>
       <c r="L8" s="47"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="75"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="47"/>
       <c r="P8" s="47"/>
       <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="74"/>
       <c r="V8" s="18"/>
       <c r="AC8" s="20"/>
       <c r="AD8" s="18"/>
@@ -1484,10 +1481,10 @@
       <c r="CG8" s="20"/>
     </row>
     <row r="9" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="60"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="48" t="s">
         <v>27</v>
       </c>
@@ -1519,10 +1516,10 @@
       <c r="CG9" s="20"/>
     </row>
     <row r="10" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="53" t="s">
         <v>28</v>
       </c>
@@ -1533,16 +1530,16 @@
       <c r="J10" s="47"/>
       <c r="K10" s="47"/>
       <c r="L10" s="47"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="75"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="55"/>
       <c r="O10" s="47"/>
       <c r="P10" s="47"/>
       <c r="Q10" s="47"/>
       <c r="R10" s="47"/>
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="18"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
@@ -1608,16 +1605,16 @@
       <c r="CG10" s="20"/>
     </row>
     <row r="11" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63">
+      <c r="A11" s="59">
         <v>3</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="69"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="49" t="s">
         <v>24</v>
       </c>
@@ -1646,15 +1643,25 @@
       <c r="CG11" s="11"/>
     </row>
     <row r="12" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="50" t="s">
         <v>25</v>
       </c>
       <c r="M12" s="13"/>
-      <c r="U12" s="13"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
       <c r="AC12" s="13"/>
       <c r="AK12" s="13"/>
       <c r="AS12" s="13"/>
@@ -1665,10 +1672,10 @@
       <c r="CG12" s="13"/>
     </row>
     <row r="13" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="51" t="s">
         <v>27</v>
       </c>
@@ -1687,10 +1694,10 @@
       <c r="CG13" s="13"/>
     </row>
     <row r="14" spans="1:85" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="50" t="s">
         <v>28</v>
       </c>
@@ -1776,16 +1783,16 @@
       <c r="CG14" s="13"/>
     </row>
     <row r="15" spans="1:85" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63">
+      <c r="A15" s="59">
         <v>4</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="59"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="52" t="s">
         <v>24</v>
       </c>
@@ -1817,10 +1824,10 @@
       <c r="CG15" s="17"/>
     </row>
     <row r="16" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="60"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="53" t="s">
         <v>25</v>
       </c>
@@ -1846,10 +1853,10 @@
       <c r="CG16" s="20"/>
     </row>
     <row r="17" spans="1:85" s="19" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="60"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="48" t="s">
         <v>27</v>
       </c>
@@ -1881,10 +1888,10 @@
       <c r="CG17" s="20"/>
     </row>
     <row r="18" spans="1:85" s="21" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="53" t="s">
         <v>28</v>
       </c>
@@ -1904,14 +1911,14 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="20"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="76"/>
       <c r="AD18" s="18"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
@@ -1970,16 +1977,16 @@
       <c r="CG18" s="20"/>
     </row>
     <row r="19" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63">
+      <c r="A19" s="59">
         <v>5</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="69"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="49" t="s">
         <v>24</v>
       </c>
@@ -2013,17 +2020,26 @@
       <c r="CG19" s="11"/>
     </row>
     <row r="20" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="50" t="s">
         <v>25</v>
       </c>
       <c r="M20" s="13"/>
       <c r="U20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AK20" s="13"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="23"/>
+      <c r="AM20" s="23"/>
       <c r="AS20" s="13"/>
       <c r="BA20" s="13"/>
       <c r="BI20" s="13"/>
@@ -2032,10 +2048,10 @@
       <c r="CG20" s="13"/>
     </row>
     <row r="21" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="51" t="s">
         <v>27</v>
       </c>
@@ -2061,10 +2077,10 @@
       <c r="CG21" s="13"/>
     </row>
     <row r="22" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="50" t="s">
         <v>28</v>
       </c>
@@ -2092,17 +2108,17 @@
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="13"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
       <c r="AO22" s="12"/>
       <c r="AP22" s="12"/>
       <c r="AQ22" s="12"/>
@@ -2150,16 +2166,16 @@
       <c r="CG22" s="13"/>
     </row>
     <row r="23" spans="1:85" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63">
+      <c r="A23" s="59">
         <v>6</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="52" t="s">
         <v>24</v>
       </c>
@@ -2188,10 +2204,10 @@
       <c r="CG23" s="17"/>
     </row>
     <row r="24" spans="1:85" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="60"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="53" t="s">
         <v>26</v>
       </c>
@@ -2217,10 +2233,10 @@
       <c r="CG24" s="20"/>
     </row>
     <row r="25" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="60"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="48" t="s">
         <v>27</v>
       </c>
@@ -2249,10 +2265,10 @@
       <c r="CG25" s="20"/>
     </row>
     <row r="26" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="53" t="s">
         <v>28</v>
       </c>
@@ -2338,16 +2354,16 @@
       <c r="CG26" s="20"/>
     </row>
     <row r="27" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63">
+      <c r="A27" s="59">
         <v>7</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="69"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="49" t="s">
         <v>24</v>
       </c>
@@ -2376,10 +2392,10 @@
       <c r="CG27" s="11"/>
     </row>
     <row r="28" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="50" t="s">
         <v>25</v>
       </c>
@@ -2395,10 +2411,10 @@
       <c r="CG28" s="13"/>
     </row>
     <row r="29" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="51" t="s">
         <v>27</v>
       </c>
@@ -2418,10 +2434,10 @@
       <c r="CG29" s="13"/>
     </row>
     <row r="30" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="50" t="s">
         <v>28</v>
       </c>
@@ -2507,16 +2523,16 @@
       <c r="CG30" s="13"/>
     </row>
     <row r="31" spans="1:85" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63">
+      <c r="A31" s="59">
         <v>8</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="52" t="s">
         <v>24</v>
       </c>
@@ -2553,10 +2569,10 @@
       <c r="CG31" s="17"/>
     </row>
     <row r="32" spans="1:85" s="19" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="60"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="53" t="s">
         <v>26</v>
       </c>
@@ -2582,10 +2598,10 @@
       <c r="CG32" s="20"/>
     </row>
     <row r="33" spans="1:85" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="60"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="48" t="s">
         <v>27</v>
       </c>
@@ -2622,10 +2638,10 @@
       <c r="CG33" s="20"/>
     </row>
     <row r="34" spans="1:85" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="53" t="s">
         <v>28</v>
       </c>
@@ -2711,16 +2727,16 @@
       <c r="CG34" s="20"/>
     </row>
     <row r="35" spans="1:85" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63">
+      <c r="A35" s="59">
         <v>9</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="69"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="49" t="s">
         <v>24</v>
       </c>
@@ -2747,10 +2763,10 @@
       <c r="CG35" s="11"/>
     </row>
     <row r="36" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
       <c r="E36" s="50" t="s">
         <v>25</v>
       </c>
@@ -2766,10 +2782,10 @@
       <c r="CG36" s="13"/>
     </row>
     <row r="37" spans="1:85" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="51" t="s">
         <v>27</v>
       </c>
@@ -2786,10 +2802,10 @@
       <c r="CG37" s="13"/>
     </row>
     <row r="38" spans="1:85" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
       <c r="E38" s="50" t="s">
         <v>28</v>
       </c>
@@ -2875,12 +2891,12 @@
       <c r="CG38" s="13"/>
     </row>
     <row r="39" spans="1:85" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="54" t="s">
+      <c r="A39" s="74"/>
+      <c r="B39" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
@@ -2966,10 +2982,10 @@
       <c r="CG39" s="35"/>
     </row>
     <row r="40" spans="1:85" s="14" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="31"/>
       <c r="F40" s="32"/>
       <c r="G40" s="33"/>
@@ -3054,32 +3070,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="BJ1:BQ1"/>
-    <mergeCell ref="BR1:BY1"/>
-    <mergeCell ref="BZ1:CG1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="AD1:AK1"/>
-    <mergeCell ref="AL1:AS1"/>
-    <mergeCell ref="AT1:BA1"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:D34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:D26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:D30"/>
-    <mergeCell ref="BB1:BI1"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="C39:D40"/>
     <mergeCell ref="A39:A40"/>
@@ -3096,6 +3086,32 @@
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:D22"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:D26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:D30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="BJ1:BQ1"/>
+    <mergeCell ref="BR1:BY1"/>
+    <mergeCell ref="BZ1:CG1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="AD1:AK1"/>
+    <mergeCell ref="AL1:AS1"/>
+    <mergeCell ref="AT1:BA1"/>
+    <mergeCell ref="BB1:BI1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
